--- a/SchedulingData/dynamic14/pso/scheduling1_4.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_4.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.3</v>
+        <v>64.16</v>
       </c>
       <c r="E2" t="n">
-        <v>27.8</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>63.98</v>
+        <v>55.5</v>
       </c>
       <c r="E3" t="n">
-        <v>26.752</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>86.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>25.52</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="5">
@@ -523,74 +523,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>64.16</v>
       </c>
       <c r="D5" t="n">
-        <v>54.44</v>
+        <v>132.64</v>
       </c>
       <c r="E5" t="n">
-        <v>26.256</v>
+        <v>24.536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54.44</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>111.38</v>
+        <v>61.6</v>
       </c>
       <c r="E6" t="n">
-        <v>22.672</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>86.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>141.28</v>
+        <v>112.3</v>
       </c>
       <c r="E7" t="n">
-        <v>21.672</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>111.38</v>
+        <v>112.3</v>
       </c>
       <c r="D8" t="n">
-        <v>173.28</v>
+        <v>179.58</v>
       </c>
       <c r="E8" t="n">
-        <v>18.592</v>
+        <v>18.972</v>
       </c>
     </row>
     <row r="9">
@@ -599,131 +599,131 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>141.28</v>
+        <v>55.5</v>
       </c>
       <c r="D9" t="n">
-        <v>209.18</v>
+        <v>99.34</v>
       </c>
       <c r="E9" t="n">
-        <v>16.992</v>
+        <v>22.876</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>99.34</v>
       </c>
       <c r="D10" t="n">
-        <v>60.5</v>
+        <v>141.58</v>
       </c>
       <c r="E10" t="n">
-        <v>25.14</v>
+        <v>19.292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.3</v>
+        <v>132.64</v>
       </c>
       <c r="D11" t="n">
-        <v>115.1</v>
+        <v>192.72</v>
       </c>
       <c r="E11" t="n">
-        <v>25.76</v>
+        <v>21.148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>173.28</v>
+        <v>61.6</v>
       </c>
       <c r="D12" t="n">
-        <v>230.28</v>
+        <v>121</v>
       </c>
       <c r="E12" t="n">
-        <v>14.512</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>63.98</v>
+        <v>179.58</v>
       </c>
       <c r="D13" t="n">
-        <v>134.1</v>
+        <v>237.78</v>
       </c>
       <c r="E13" t="n">
-        <v>23.84</v>
+        <v>14.292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>115.1</v>
+        <v>121</v>
       </c>
       <c r="D14" t="n">
-        <v>174.9</v>
+        <v>166.42</v>
       </c>
       <c r="E14" t="n">
-        <v>22.38</v>
+        <v>18.288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>60.5</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>103</v>
+        <v>52.66</v>
       </c>
       <c r="E15" t="n">
-        <v>22.02</v>
+        <v>27.404</v>
       </c>
     </row>
     <row r="16">
@@ -732,36 +732,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>134.1</v>
+        <v>52.66</v>
       </c>
       <c r="D16" t="n">
-        <v>182.46</v>
+        <v>132.46</v>
       </c>
       <c r="E16" t="n">
-        <v>20.144</v>
+        <v>22.544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>103</v>
+        <v>141.58</v>
       </c>
       <c r="D17" t="n">
-        <v>176.1</v>
+        <v>195.02</v>
       </c>
       <c r="E17" t="n">
-        <v>18.3</v>
+        <v>16.068</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>182.46</v>
+        <v>132.46</v>
       </c>
       <c r="D18" t="n">
-        <v>217.52</v>
+        <v>178.52</v>
       </c>
       <c r="E18" t="n">
-        <v>17.768</v>
+        <v>19.068</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>174.9</v>
+        <v>237.78</v>
       </c>
       <c r="D19" t="n">
-        <v>243.44</v>
+        <v>314.3</v>
       </c>
       <c r="E19" t="n">
-        <v>19.156</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>230.28</v>
+        <v>192.72</v>
       </c>
       <c r="D20" t="n">
-        <v>279.02</v>
+        <v>259.04</v>
       </c>
       <c r="E20" t="n">
-        <v>10.768</v>
+        <v>17.116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>176.1</v>
+        <v>259.04</v>
       </c>
       <c r="D21" t="n">
-        <v>241.2</v>
+        <v>301.14</v>
       </c>
       <c r="E21" t="n">
-        <v>14.88</v>
+        <v>14.036</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>243.44</v>
+        <v>314.3</v>
       </c>
       <c r="D22" t="n">
-        <v>290.7</v>
+        <v>364</v>
       </c>
       <c r="E22" t="n">
-        <v>16.56</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="23">
@@ -865,93 +865,93 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>166.42</v>
       </c>
       <c r="D23" t="n">
-        <v>50.68</v>
+        <v>229.68</v>
       </c>
       <c r="E23" t="n">
-        <v>26.612</v>
+        <v>15.072</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>279.02</v>
+        <v>178.52</v>
       </c>
       <c r="D24" t="n">
-        <v>345.38</v>
+        <v>243.46</v>
       </c>
       <c r="E24" t="n">
-        <v>7.752</v>
+        <v>16.164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>209.18</v>
+        <v>301.14</v>
       </c>
       <c r="D25" t="n">
-        <v>256.18</v>
+        <v>339.9</v>
       </c>
       <c r="E25" t="n">
-        <v>13.912</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>50.68</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>117</v>
+        <v>47.8</v>
       </c>
       <c r="E26" t="n">
-        <v>22.58</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>217.52</v>
+        <v>47.8</v>
       </c>
       <c r="D27" t="n">
-        <v>290.68</v>
+        <v>95.5</v>
       </c>
       <c r="E27" t="n">
-        <v>14.552</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="28">
@@ -960,169 +960,169 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>345.38</v>
+        <v>339.9</v>
       </c>
       <c r="D28" t="n">
-        <v>419.24</v>
+        <v>394.56</v>
       </c>
       <c r="E28" t="n">
-        <v>4.496</v>
+        <v>8.923999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>241.2</v>
+        <v>394.56</v>
       </c>
       <c r="D29" t="n">
-        <v>304.46</v>
+        <v>440.16</v>
       </c>
       <c r="E29" t="n">
-        <v>12.144</v>
+        <v>5.504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>290.68</v>
+        <v>95.5</v>
       </c>
       <c r="D30" t="n">
-        <v>348.18</v>
+        <v>149.16</v>
       </c>
       <c r="E30" t="n">
-        <v>10.912</v>
+        <v>19.024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>304.46</v>
+        <v>195.02</v>
       </c>
       <c r="D31" t="n">
-        <v>343.1</v>
+        <v>256.22</v>
       </c>
       <c r="E31" t="n">
-        <v>8.92</v>
+        <v>11.568</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>256.18</v>
+        <v>149.16</v>
       </c>
       <c r="D32" t="n">
-        <v>315.88</v>
+        <v>185.42</v>
       </c>
       <c r="E32" t="n">
-        <v>10.072</v>
+        <v>16.528</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>290.7</v>
+        <v>243.46</v>
       </c>
       <c r="D33" t="n">
-        <v>348.18</v>
+        <v>311.8</v>
       </c>
       <c r="E33" t="n">
-        <v>12.452</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>315.88</v>
+        <v>229.68</v>
       </c>
       <c r="D34" t="n">
-        <v>357.2</v>
+        <v>291.2</v>
       </c>
       <c r="E34" t="n">
-        <v>7.08</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>117</v>
+        <v>185.42</v>
       </c>
       <c r="D35" t="n">
-        <v>175.5</v>
+        <v>246.44</v>
       </c>
       <c r="E35" t="n">
-        <v>19.82</v>
+        <v>13.536</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>348.18</v>
+        <v>246.44</v>
       </c>
       <c r="D36" t="n">
-        <v>397.46</v>
+        <v>302.9</v>
       </c>
       <c r="E36" t="n">
-        <v>8.624000000000001</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="37">
@@ -1131,55 +1131,55 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>348.18</v>
+        <v>364</v>
       </c>
       <c r="D37" t="n">
-        <v>434.04</v>
+        <v>429.9</v>
       </c>
       <c r="E37" t="n">
-        <v>8.976000000000001</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>434.04</v>
+        <v>256.22</v>
       </c>
       <c r="D38" t="n">
-        <v>511.56</v>
+        <v>325.64</v>
       </c>
       <c r="E38" t="n">
-        <v>6.324</v>
+        <v>7.256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>175.5</v>
+        <v>311.8</v>
       </c>
       <c r="D39" t="n">
-        <v>250.9</v>
+        <v>375.24</v>
       </c>
       <c r="E39" t="n">
-        <v>16.86</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="40">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>357.2</v>
+        <v>325.64</v>
       </c>
       <c r="D40" t="n">
-        <v>406.72</v>
+        <v>381.44</v>
       </c>
       <c r="E40" t="n">
-        <v>2.768</v>
+        <v>3.296</v>
       </c>
     </row>
     <row r="41">
@@ -1207,36 +1207,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>419.24</v>
+        <v>440.16</v>
       </c>
       <c r="D41" t="n">
-        <v>462.8</v>
+        <v>476.66</v>
       </c>
       <c r="E41" t="n">
-        <v>1.76</v>
+        <v>2.984</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>462.8</v>
+        <v>291.2</v>
       </c>
       <c r="D42" t="n">
-        <v>541.08</v>
+        <v>344.78</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>7.792</v>
       </c>
     </row>
     <row r="43">
@@ -1245,74 +1245,74 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>343.1</v>
+        <v>302.9</v>
       </c>
       <c r="D43" t="n">
-        <v>399.3</v>
+        <v>377.28</v>
       </c>
       <c r="E43" t="n">
-        <v>6.4</v>
+        <v>6.672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>397.46</v>
+        <v>344.78</v>
       </c>
       <c r="D44" t="n">
-        <v>488.78</v>
+        <v>406.68</v>
       </c>
       <c r="E44" t="n">
-        <v>4.592</v>
+        <v>3.712</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>250.9</v>
+        <v>375.24</v>
       </c>
       <c r="D45" t="n">
-        <v>302.3</v>
+        <v>423.5</v>
       </c>
       <c r="E45" t="n">
-        <v>12.36</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>399.3</v>
+        <v>406.68</v>
       </c>
       <c r="D46" t="n">
-        <v>460.92</v>
+        <v>455.86</v>
       </c>
       <c r="E46" t="n">
-        <v>2.368</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="47">
@@ -1321,55 +1321,55 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>302.3</v>
+        <v>455.86</v>
       </c>
       <c r="D47" t="n">
-        <v>350.68</v>
+        <v>529.91</v>
       </c>
       <c r="E47" t="n">
-        <v>9.632</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>541.08</v>
+        <v>529.91</v>
       </c>
       <c r="D48" t="n">
-        <v>601.62</v>
+        <v>593.21</v>
       </c>
       <c r="E48" t="n">
-        <v>27.096</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>406.72</v>
+        <v>377.28</v>
       </c>
       <c r="D49" t="n">
-        <v>457.78</v>
+        <v>429.88</v>
       </c>
       <c r="E49" t="n">
-        <v>0.272</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="50">
@@ -1378,60 +1378,60 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>457.78</v>
+        <v>381.44</v>
       </c>
       <c r="D50" t="n">
-        <v>548.9400000000001</v>
+        <v>424.36</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>350.68</v>
+        <v>424.36</v>
       </c>
       <c r="D51" t="n">
-        <v>411.68</v>
+        <v>514.67</v>
       </c>
       <c r="E51" t="n">
-        <v>5.672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>411.68</v>
+        <v>423.5</v>
       </c>
       <c r="D52" t="n">
-        <v>495.88</v>
+        <v>501.7</v>
       </c>
       <c r="E52" t="n">
-        <v>1.352</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>495.88</v>
+        <v>501.7</v>
       </c>
       <c r="D53" t="n">
-        <v>570.1799999999999</v>
+        <v>589.64</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
@@ -1450,37 +1450,37 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>488.78</v>
+        <v>429.88</v>
       </c>
       <c r="D54" t="n">
-        <v>561.48</v>
+        <v>490.98</v>
       </c>
       <c r="E54" t="n">
-        <v>0.432</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>561.48</v>
+        <v>490.98</v>
       </c>
       <c r="D55" t="n">
-        <v>637.42</v>
+        <v>599.26</v>
       </c>
       <c r="E55" t="n">
         <v>30</v>
